--- a/Selenium/Bugs/data/style/발라드한.xlsx
+++ b/Selenium/Bugs/data/style/발라드한.xlsx
@@ -400,7 +400,7 @@
     <t>애상(哀想)</t>
   </si>
   <si>
-    <t>단 한번의 사랑</t>
+    <t xml:space="preserve">단 한번의 사랑 </t>
   </si>
   <si>
     <t>여자가 사랑할 때</t>
@@ -1408,7 +1408,7 @@
     <t>선물</t>
   </si>
   <si>
-    <t>홀로 (feat. 김나영)</t>
+    <t xml:space="preserve">홀로 (feat. 김나영) </t>
   </si>
   <si>
     <t>나를 잊지 말아요</t>
